--- a/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>Interest Topics</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Post Length</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Punctuation_Count</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hashtag_Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -537,6 +552,15 @@
         <is>
           <t>No Topics</t>
         </is>
+      </c>
+      <c r="L2" t="n">
+        <v>349</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -596,6 +620,15 @@
           <t>[{'topic_name': 'Interior Design'}, {'topic_name': 'Home Furnishings'}, {'topic_name': 'Construction &amp; Renovation'}]</t>
         </is>
       </c>
+      <c r="L3" t="n">
+        <v>1064</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -650,6 +683,15 @@
           <t>No Topics</t>
         </is>
       </c>
+      <c r="L4" t="n">
+        <v>139</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -704,6 +746,15 @@
         <is>
           <t>No Topics</t>
         </is>
+      </c>
+      <c r="L5" t="n">
+        <v>400</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -760,6 +811,15 @@
         <is>
           <t>[{'topic_name': 'Interior Design'}, {'topic_name': 'Home Furnishings'}, {'topic_name': 'Construction &amp; Renovation'}]</t>
         </is>
+      </c>
+      <c r="L6" t="n">
+        <v>544</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -818,6 +878,15 @@
           <t>No Topics</t>
         </is>
       </c>
+      <c r="L7" t="n">
+        <v>365</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -874,6 +943,15 @@
         <is>
           <t>No Topics</t>
         </is>
+      </c>
+      <c r="L8" t="n">
+        <v>547</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -935,6 +1013,15 @@
           <t>No Topics</t>
         </is>
       </c>
+      <c r="L9" t="n">
+        <v>865</v>
+      </c>
+      <c r="M9" t="n">
+        <v>23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -991,6 +1078,15 @@
         <is>
           <t>No Topics</t>
         </is>
+      </c>
+      <c r="L10" t="n">
+        <v>492</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1050,6 +1146,15 @@
           <t>No Topics</t>
         </is>
       </c>
+      <c r="L11" t="n">
+        <v>545</v>
+      </c>
+      <c r="M11" t="n">
+        <v>17</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1099,6 +1204,15 @@
           <t>No Topics</t>
         </is>
       </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1148,6 +1262,15 @@
           <t>No Topics</t>
         </is>
       </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1201,6 +1324,15 @@
           <t>No Topics</t>
         </is>
       </c>
+      <c r="L14" t="n">
+        <v>166</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1249,6 +1381,15 @@
         <is>
           <t>No Topics</t>
         </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +503,31 @@
           <t>Hashtag_Count</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -561,6 +590,21 @@
       </c>
       <c r="N2" t="n">
         <v>3</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>45246.59625</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>45246</v>
       </c>
     </row>
     <row r="3">
@@ -629,6 +673,21 @@
       <c r="N3" t="n">
         <v>7</v>
       </c>
+      <c r="O3" s="2" t="n">
+        <v>45229.68184027778</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>45229</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -692,6 +751,21 @@
       <c r="N4" t="n">
         <v>3</v>
       </c>
+      <c r="O4" s="2" t="n">
+        <v>45226.53782407408</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>45226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -756,6 +830,21 @@
       <c r="N5" t="n">
         <v>5</v>
       </c>
+      <c r="O5" s="2" t="n">
+        <v>45212.61708333333</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>45212</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -820,6 +909,21 @@
       </c>
       <c r="N6" t="n">
         <v>12</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>45210.5697337963</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>45210</v>
       </c>
     </row>
     <row r="7">
@@ -887,6 +991,21 @@
       <c r="N7" t="n">
         <v>4</v>
       </c>
+      <c r="O7" s="2" t="n">
+        <v>45168.625</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>30</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>45168</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -952,6 +1071,21 @@
       </c>
       <c r="N8" t="n">
         <v>11</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>45099.375</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>22</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>45099</v>
       </c>
     </row>
     <row r="9">
@@ -1022,6 +1156,21 @@
       <c r="N9" t="n">
         <v>11</v>
       </c>
+      <c r="O9" s="2" t="n">
+        <v>45027.625</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>45027</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1087,6 +1236,21 @@
       </c>
       <c r="N10" t="n">
         <v>8</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>45014.68523148148</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>29</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>45014</v>
       </c>
     </row>
     <row r="11">
@@ -1155,6 +1319,21 @@
       <c r="N11" t="n">
         <v>9</v>
       </c>
+      <c r="O11" s="2" t="n">
+        <v>44988.5015162037</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>44988</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1213,6 +1392,21 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
+      <c r="O12" s="2" t="n">
+        <v>44635.59407407408</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>44635</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1271,6 +1465,21 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
+      <c r="O13" s="2" t="n">
+        <v>44617.52159722222</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>25</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>44617</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1333,6 +1542,21 @@
       <c r="N14" t="n">
         <v>3</v>
       </c>
+      <c r="O14" s="2" t="n">
+        <v>44613.99657407407</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>44613</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1390,6 +1614,21 @@
       </c>
       <c r="N15" t="n">
         <v>0</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>44603.64481481481</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>11</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>44603</v>
       </c>
     </row>
   </sheetData>

--- a/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,92 +440,112 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Post Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Plays</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Accounts Reached</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Saves</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Likes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Shares</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Interest Topics</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Post Length</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Punctuation_Count</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Hashtag_Count</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Combined</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Posts_Analysis</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_category</t>
         </is>
       </c>
     </row>
@@ -533,1102 +553,1142 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Be a hero on Nov. 28. Help us curate a âRoom of her Ownâ for women at risk of homelessness in our regionð¡. Together, we can build a strong foundation for these women and provide them with a path to self-sufficiency. Copy-and-paste the link to learn more. https://bethlehemhaven.org/givingtuesday/
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>be a hero on nov. 28. help us curate a âroom of her ownâ for women at risk of homelessness in our regionð¡. together, we can build a strong foundation for these women and provide them with a path to self-sufficiency. copy-and-paste the link to learn more. https://bethlehemhaven.org/givingtuesday/
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>180</v>
+      </c>
+      <c r="F2" t="n">
+        <v>159</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K2" t="n">
         <v>1700162316</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>349</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>18</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="P2" s="2" t="n">
         <v>45246.59625</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>2023</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>11</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="T2" s="2" t="n">
         <v>45246</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>hero nov. 28. help us curate âroom ownâ women risk homelessness regionð¡ . together , build strong foundation women provide path self-sufficiency . copy-and-paste link learn . https : //bethlehemhaven.org/givingtuesday/ # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>0.8176</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bethlehem Haven shared a glimpse of the renovation and the life-changing work of the organization during its mission-driven event, A Legacy-Making Housewarming Gala, on Wednesday, Oct. 25, at Hotel Monaco, Downtown. 
-Bethlehem Haven is transforming its supportive housing at 1410 Fifth Ave. in Pittsburghâs Uptown neighborhood into a higher standard of living for the 26 unhoused women â many of whom are 55 or older and navigating physical or mental challenges â who call it their long-term home. 
-The event honored John Lovelace, longtime board member and champion of Bethlehem Havenâs mission, who spoke of âfinding what you feel passionate about and giving to that cause.â
-Guests were encouraged to participate in the Housewarming Registry and buy items to furnish the rooms designed by Catherine Montague of Montague Designs. 
-Missed the gala but still want to support âA Room of Her Ownâ and help furnish the new rooms at 1410? Visit our website! #linkinbioð 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>bethlehem haven shared a glimpse of the renovation and the life-changing work of the organization during its mission-driven event, a legacy-making housewarming gala, on wednesday, oct. 25, at hotel monaco, downtown. 
+bethlehem haven is transforming its supportive housing at 1410 fifth ave. in pittsburghâs uptown neighborhood into a higher standard of living for the 26 unhoused women â many of whom are 55 or older and navigating physical or mental challenges â who call it their long-term home. 
+the event honored john lovelace, longtime board member and champion of bethlehem havenâs mission, who spoke of âfinding what you feel passionate about and giving to that cause.â
+guests were encouraged to participate in the housewarming registry and buy items to furnish the rooms designed by catherine montague of montague designs. 
+missed the gala but still want to support âa room of her ownâ and help furnish the new rooms at 1410? visit our website! #linkinbioð 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>442</v>
+      </c>
+      <c r="F3" t="n">
+        <v>404</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
       <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
         <v>1698697311</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[{'topic_name': 'Interior Design'}, {'topic_name': 'Home Furnishings'}, {'topic_name': 'Construction &amp; Renovation'}]</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1064</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>26</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="P3" s="2" t="n">
         <v>45229.68184027778</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>2023</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>10</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>30</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="T3" s="2" t="n">
         <v>45229</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>bethlehem shared glimpse renovation life-changing work organization mission-driven event , legacy-making housewarming gala , wednesday , oct. 25 , hotel monaco , downtown . bethlehem transforming supportive housing 1410 fifth ave. pittsburghâs uptown neighborhood higher standard living 26 unhoused women â many 55 older navigating physical mental challenges â call long-term home . event honored john lovelace , longtime board member champion bethlehem havenâs mission , spoke âfinding feel passionate giving cause.â guests encouraged participate housewarming registry buy items furnish rooms designed catherine montague montague designs . missed gala still want support âa room ownâ help furnish new rooms 1410 ? visit website ! # linkinbioð # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9741</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A little magic from Wednesdayâs Legacy-Making Housewarming Gala! More to come so stay tuned! 
-#BethlehemHaven #WeSeeYou #EndHomelessness</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>a little magic from wednesdayâs legacy-making housewarming gala! more to come so stay tuned! 
+#bethlehemhaven #weseeyou #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>247</v>
+      </c>
+      <c r="F4" t="n">
+        <v>217</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
       <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>1698425668</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>139</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>6</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="P4" s="2" t="n">
         <v>45226.53782407408</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>2023</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>10</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>27</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="T4" s="2" t="n">
         <v>45226</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>little magic wednesdayâs legacy-making housewarming gala ! come stay tuned ! # bethlehemhaven # weseeyou # endhomelessness</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Thank you to @kdkaradio and host @nataliebencivenga for having Annette Fetchko, executive director of @bethlehem_haven on to discuss homelessness in our communities, what Bethlehem Haven is doing to find solutions to this issue and details about our upcoming gala on Oct. 25!
-To listen to the full clip, go to kdkaradio.com. 
-#BethlehemHaven #KDKARadio #NatalieBencivenga #endhomelessness #WeSeeYou</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>thank you to @kdkaradio and host @nataliebencivenga for having annette fetchko, executive director of @bethlehem_haven on to discuss homelessness in our communities, what bethlehem haven is doing to find solutions to this issue and details about our upcoming gala on oct. 25!
+to listen to the full clip, go to kdkaradio.com. 
+#bethlehemhaven #kdkaradio #nataliebencivenga #endhomelessness #weseeyou</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+      <c r="E5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1697222916</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>400</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>16</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>5</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="P5" s="2" t="n">
         <v>45212.61708333333</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>2023</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>10</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>13</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="T5" s="2" t="n">
         <v>45212</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>thank @ kdkaradio host @ nataliebencivenga annette fetchko , executive director @ bethlehem_haven discuss homelessness communities , bethlehem find solutions issue details upcoming gala oct. 25 ! listen full clip , go kdkaradio.com . # bethlehemhaven # kdkaradio # nataliebencivenga # endhomelessness # weseeyou</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5411</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>#BTS
-We are giving everyone a sneak peek at the renovations happening at 1410 Fifth Ave. Our upcoming Legacy-Making Housewarming Gala is almost here and our emcee, Natalie Bencivenga, filmed some special pieces with us, too! Stay tuned for those, as well! 
-For tickets, visit our website: bethlehemhaven.org or go to the link in our bio! 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #LegacyMaking #HousewarmingGala #NatalieBencivenga #FifthInfluence #GiveBack @fifthinfluence @johncraigmedia @nataliebencivenga</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>#bts
+we are giving everyone a sneak peek at the renovations happening at 1410 fifth ave. our upcoming legacy-making housewarming gala is almost here and our emcee, natalie bencivenga, filmed some special pieces with us, too! stay tuned for those, as well! 
+for tickets, visit our website: bethlehemhaven.org or go to the link in our bio! 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #legacymaking #housewarminggala #nataliebencivenga #fifthinfluence #giveback @fifthinfluence @johncraigmedia @nataliebencivenga</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>360</v>
+      </c>
+      <c r="F6" t="n">
+        <v>316</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>1697046025</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[{'topic_name': 'Interior Design'}, {'topic_name': 'Home Furnishings'}, {'topic_name': 'Construction &amp; Renovation'}]</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>544</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>27</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>12</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="P6" s="2" t="n">
         <v>45210.5697337963</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>2023</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>10</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>11</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="T6" s="2" t="n">
         <v>45210</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t># bts giving everyone sneak peek renovations happening 1410 fifth ave. upcoming legacy-making housewarming gala almost emcee , natalie bencivenga , filmed special pieces us , ! stay tuned , well ! tickets , visit website : bethlehemhaven.org go link bio ! # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # legacymaking # housewarminggala # nataliebencivenga # fifthinfluence # giveback @ fifthinfluence @ johncraigmedia @ nataliebencivenga</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Have you checked out our new video highlighting the important work of Bethlehem Haven? Learn more about what we do, but more importantly, why we do what we do. 
-It is a privilege to serve our neighbors in need.
-We see you. Letâs build a strong foundation together. 
-Want to support this work? Donate with #LinkInBio 
-#BethlehemHaven #WeSeeYou #EndHomelessness</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>have you checked out our new video highlighting the important work of bethlehem haven? learn more about what we do, but more importantly, why we do what we do. 
+it is a privilege to serve our neighbors in need.
+we see you. letâs build a strong foundation together. 
+want to support this work? donate with #linkinbio 
+#bethlehemhaven #weseeyou #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>90</v>
+      </c>
+      <c r="E7" t="n">
+        <v>284</v>
+      </c>
+      <c r="F7" t="n">
+        <v>202</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
         <v>1693422000</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>365</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>12</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>4</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="P7" s="2" t="n">
         <v>45168.625</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>2023</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>8</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>30</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="T7" s="2" t="n">
         <v>45168</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>checked new video highlighting important work bethlehem ? learn , importantly , . privilege serve neighbors need . see . letâs build strong foundation together . want support work ? donate # linkinbio # bethlehemhaven # weseeyou # endhomelessness</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0.9054</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>#ThrowbackThursday 
-Thank you to Sister to Sister Ministry for spreading the love on Motherâs Day. Many of the residents at Bethlehem Haven are mothers and grandmothers who we were proud to honor. We appreciate the kindness and are so grateful to our volunteers for brightening everyoneâs day! 
-We see you. Letâs build a strong foundation together. 
-Learn more about our volunteer opportunities or how to donate: #LinkInBio
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #MothersDay #SpreadKindness</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>#throwbackthursday 
+thank you to sister to sister ministry for spreading the love on motherâs day. many of the residents at bethlehem haven are mothers and grandmothers who we were proud to honor. we appreciate the kindness and are so grateful to our volunteers for brightening everyoneâs day! 
+we see you. letâs build a strong foundation together. 
+learn more about our volunteer opportunities or how to donate: #linkinbio
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #mothersday #spreadkindness</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>78</v>
+      </c>
+      <c r="F8" t="n">
+        <v>53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1687438800</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>547</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>17</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="P8" s="2" t="n">
         <v>45099.375</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>2023</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>6</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>22</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="T8" s="2" t="n">
         <v>45099</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t># throwbackthursday thank sister sister ministry spreading love motherâs day . many residents bethlehem mothers grandmothers proud honor . appreciate kindness grateful volunteers brightening everyoneâs day ! see . letâs build strong foundation together . learn volunteer opportunities donate : # linkinbio # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # mothersday # spreadkindness</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>We are grateful to everyone who joined us in celebrating Easter at Bethlehem Haven! 
-We have the most wonderful volunteers who make the holidays extra special for those who call Bethlehem Haven home. 
-Thank you to: Theresa Lee for the paper bunnies with the chocolate eggs and for the cake, Robin Khorey and St. George Antiochian Orthodox Cathedral who donated Easter dinner, the cake and the Easter baskets, as well as Reggieâs Angels who donated their time cooking breakfast and brought Avon products.
-Everyone  enjoyed the food and loved their gifts.
-Tammy, thank you for coming in as well to share in this special day and take these photos. We really appreciate you.
-Learn more about our work and how you can get involved with #LinkInBio 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness 
-#Easter #Holidays #BeKind</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>we are grateful to everyone who joined us in celebrating easter at bethlehem haven! 
+we have the most wonderful volunteers who make the holidays extra special for those who call bethlehem haven home. 
+thank you to: theresa lee for the paper bunnies with the chocolate eggs and for the cake, robin khorey and st. george antiochian orthodox cathedral who donated easter dinner, the cake and the easter baskets, as well as reggieâs angels who donated their time cooking breakfast and brought avon products.
+everyone  enjoyed the food and loved their gifts.
+tammy, thank you for coming in as well to share in this special day and take these photos. we really appreciate you.
+learn more about our work and how you can get involved with #linkinbio 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness 
+#easter #holidays #bekind</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>43</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1681239600</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>865</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>23</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="P9" s="2" t="n">
         <v>45027.625</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>2023</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>11</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="T9" s="2" t="n">
         <v>45027</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>grateful everyone joined us celebrating easter bethlehem ! wonderful volunteers make holidays extra special call bethlehem home . thank : theresa lee paper bunnies chocolate eggs cake , robin khorey st. george antiochian orthodox cathedral donated easter dinner , cake easter baskets , well reggieâs angels donated time cooking breakfast brought avon products . everyone enjoyed food loved gifts . tammy , thank coming well share special day take photos . really appreciate . learn work get involved # linkinbio # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # easter # holidays # bekind</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>We are so grateful for our incredible volunteers! 
-Thank you to Robin Khorey along with several members of Saint George Antiochian Orthodox Cathedral who provided Easter Baskets on Sunday, March 26. They are also preparing Easter dinner on April 9th for our guests for our Shelter, Respite, and Residential Programs. 
-We see you. Letâs build a strong foundation together. 
-Learn more with #LinkInBio 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>we are so grateful for our incredible volunteers! 
+thank you to robin khorey along with several members of saint george antiochian orthodox cathedral who provided easter baskets on sunday, march 26. they are also preparing easter dinner on april 9th for our guests for our shelter, respite, and residential programs. 
+we see you. letâs build a strong foundation together. 
+learn more with #linkinbio 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>81</v>
+      </c>
+      <c r="F10" t="n">
+        <v>51</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1680121604</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>492</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>16</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>8</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="P10" s="2" t="n">
         <v>45014.68523148148</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>2023</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>29</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="T10" s="2" t="n">
         <v>45014</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>grateful incredible volunteers ! thank robin khorey along several members saint george antiochian orthodox cathedral provided easter baskets sunday , march 26. also preparing easter dinner april 9th guests shelter , respite , residential programs . see . letâs build strong foundation together . learn # linkinbio # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.8439</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Thank you to everyone who came out to support the Coldest Night of the Year event on Saturday! 
-This event worked to raise awareness around the issue of homelessness in our communities. We want to thank KDKAâs Ron Smiley, our honorary host, and everyone who made this event a success. 
-We see you. Letâs build a strong foundation together.
-If you werenât able to make it but would still like to donate to 
-Bethlehem Haven, click #linkinbio 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #CNOYPgh</t>
-        </is>
+      <c r="B11" t="n">
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>thank you to everyone who came out to support the coldest night of the year event on saturday! 
+this event worked to raise awareness around the issue of homelessness in our communities. we want to thank kdkaâs ron smiley, our honorary host, and everyone who made this event a success. 
+we see you. letâs build a strong foundation together.
+if you werenât able to make it but would still like to donate to 
+bethlehem haven, click #linkinbio 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #cnoypgh</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>339</v>
+      </c>
+      <c r="F11" t="n">
+        <v>291</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
       </c>
       <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
         <v>1677862931</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>545</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>17</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>9</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="P11" s="2" t="n">
         <v>44988.5015162037</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>2023</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
       </c>
       <c r="R11" t="n">
         <v>3</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="2" t="n">
         <v>44988</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>thank everyone came support coldest night year event saturday ! event worked raise awareness around issue homelessness communities . want thank kdkaâs ron smiley , honorary host , everyone made event success . see . letâs build strong foundation together . werenât able make would still like donate bethlehem , click # linkinbio # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # cnoypgh</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9678</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3054</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3004</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>22</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3054</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3004</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1647368128</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
         <v>44635.59407407408</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>2022</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>15</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="T12" s="2" t="n">
         <v>44635</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>44</v>
+      </c>
+      <c r="E13" t="n">
+        <v>238</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1645810266</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
         <v>44617.52159722222</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>2022</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>25</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="T13" s="2" t="n">
         <v>44617</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Join us this Saturday, February 26 for the Coldest Night of the Year walk benefiting Bethlehem Haven. Visit CNOY.com for more information #cnoy22  #cnoy  #homlessness</t>
-        </is>
+      <c r="B14" t="n">
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>join us this saturday, february 26 for the coldest night of the year walk benefiting bethlehem haven. visit cnoy.com for more information #cnoy22  #cnoy  #homlessness</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>23</v>
+      </c>
+      <c r="E14" t="n">
+        <v>536</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1645505704</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>166</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>6</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="P14" s="2" t="n">
         <v>44613.99657407407</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>2022</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>2</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>21</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="T14" s="2" t="n">
         <v>44613</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>join us saturday , february 26 coldest night year walk benefiting bethlehem . visit cnoy.com information # cnoy22 # cnoy # homlessness</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3102</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3102</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1644611312</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>No Topics</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="n">
         <v>44603.64481481481</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>2022</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>2</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>11</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="T15" s="2" t="n">
         <v>44603</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
@@ -613,7 +613,9 @@
       <c r="M2" t="n">
         <v>18</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
@@ -708,7 +710,9 @@
       <c r="M3" t="n">
         <v>26</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" t="n">
         <v>7</v>
       </c>
@@ -799,7 +803,9 @@
       <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
       <c r="O4" t="n">
         <v>3</v>
       </c>
@@ -891,7 +897,9 @@
       <c r="M5" t="n">
         <v>16</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
       <c r="O5" t="n">
         <v>5</v>
       </c>
@@ -984,7 +992,9 @@
       <c r="M6" t="n">
         <v>27</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
       <c r="O6" t="n">
         <v>12</v>
       </c>
@@ -1078,7 +1088,9 @@
       <c r="M7" t="n">
         <v>12</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
       <c r="O7" t="n">
         <v>4</v>
       </c>
@@ -1172,7 +1184,9 @@
       <c r="M8" t="n">
         <v>17</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
       <c r="O8" t="n">
         <v>11</v>
       </c>
@@ -1269,7 +1283,9 @@
       <c r="M9" t="n">
         <v>23</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
       <c r="O9" t="n">
         <v>11</v>
       </c>
@@ -1363,7 +1379,9 @@
       <c r="M10" t="n">
         <v>16</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
       <c r="O10" t="n">
         <v>8</v>
       </c>
@@ -1458,7 +1476,9 @@
       <c r="M11" t="n">
         <v>17</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
       <c r="O11" t="n">
         <v>9</v>
       </c>
@@ -1544,7 +1564,9 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
@@ -1630,7 +1652,9 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
@@ -1720,7 +1744,9 @@
       <c r="M14" t="n">
         <v>6</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
       <c r="O14" t="n">
         <v>3</v>
       </c>
@@ -1806,7 +1832,9 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>

--- a/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,11 @@
           <t>Verb_Count</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Entities_Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -645,6 +650,9 @@
       </c>
       <c r="X2" t="n">
         <v>7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -743,6 +751,9 @@
       <c r="X3" t="n">
         <v>25</v>
       </c>
+      <c r="Y3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -836,6 +847,9 @@
       <c r="X4" t="n">
         <v>4</v>
       </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -930,6 +944,9 @@
       <c r="X5" t="n">
         <v>8</v>
       </c>
+      <c r="Y5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1023,6 +1040,9 @@
         <v>4</v>
       </c>
       <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1121,6 +1141,9 @@
       <c r="X7" t="n">
         <v>11</v>
       </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1216,6 +1239,9 @@
       </c>
       <c r="X8" t="n">
         <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1316,6 +1342,9 @@
       <c r="X9" t="n">
         <v>19</v>
       </c>
+      <c r="Y9" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1411,6 +1440,9 @@
       </c>
       <c r="X10" t="n">
         <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1509,6 +1541,9 @@
       <c r="X11" t="n">
         <v>15</v>
       </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1597,6 +1632,9 @@
       <c r="X12" t="n">
         <v>0</v>
       </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1685,6 +1723,9 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1777,6 +1818,9 @@
       <c r="X14" t="n">
         <v>3</v>
       </c>
+      <c r="Y14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1863,6 +1907,9 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned Reels Data.xlsx
@@ -616,7 +616,7 @@
         <v>349</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>0.05157593123209169</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0.005730659025787965</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>0.02005730659025788</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0.005730659025787965</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +716,10 @@
         <v>1064</v>
       </c>
       <c r="M3" t="n">
-        <v>26</v>
+        <v>0.02443609022556391</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.0009398496240601503</v>
       </c>
       <c r="O3" t="n">
         <v>7</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>0.009398496240601503</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>0.02349624060150376</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="4">
@@ -812,10 +812,10 @@
         <v>139</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>0.02158273381294964</v>
       </c>
     </row>
     <row r="5">
@@ -909,10 +909,10 @@
         <v>400</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>0.04</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.0025</v>
       </c>
       <c r="O5" t="n">
         <v>5</v>
@@ -939,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>0.0075</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>0.02</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="6">
@@ -1007,10 +1007,10 @@
         <v>544</v>
       </c>
       <c r="M6" t="n">
-        <v>27</v>
+        <v>0.04963235294117647</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0.005514705882352942</v>
       </c>
       <c r="O6" t="n">
         <v>12</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>0.01286764705882353</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>0.01286764705882353</v>
       </c>
     </row>
     <row r="7">
@@ -1106,7 +1106,7 @@
         <v>365</v>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>0.03287671232876712</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>0.01095890410958904</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>0.03013698630136986</v>
       </c>
       <c r="Y7" t="n">
-        <v>3</v>
+        <v>0.00821917808219178</v>
       </c>
     </row>
     <row r="8">
@@ -1205,10 +1205,10 @@
         <v>547</v>
       </c>
       <c r="M8" t="n">
-        <v>17</v>
+        <v>0.03107861060329068</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.001828153564899452</v>
       </c>
       <c r="O8" t="n">
         <v>11</v>
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>0.01096892138939671</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>0.01645338208409506</v>
       </c>
       <c r="Y8" t="n">
-        <v>6</v>
+        <v>0.01096892138939671</v>
       </c>
     </row>
     <row r="9">
@@ -1307,10 +1307,10 @@
         <v>865</v>
       </c>
       <c r="M9" t="n">
-        <v>23</v>
+        <v>0.02658959537572254</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.00115606936416185</v>
       </c>
       <c r="O9" t="n">
         <v>11</v>
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>0.006936416184971098</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>0.02196531791907514</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>0.01618497109826589</v>
       </c>
     </row>
     <row r="10">
@@ -1406,10 +1406,10 @@
         <v>492</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.002032520325203252</v>
       </c>
       <c r="O10" t="n">
         <v>8</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>0.01016260162601626</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>0.01829268292682927</v>
       </c>
     </row>
     <row r="11">
@@ -1506,10 +1506,10 @@
         <v>545</v>
       </c>
       <c r="M11" t="n">
-        <v>17</v>
+        <v>0.03119266055045872</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="O11" t="n">
         <v>9</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>0.01651376146788991</v>
       </c>
     </row>
     <row r="12">
@@ -1596,12 +1596,8 @@
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
         <v>0</v>
       </c>
@@ -1626,15 +1622,9 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1687,12 +1677,8 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
         <v>0</v>
       </c>
@@ -1717,15 +1703,9 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1783,7 +1763,7 @@
         <v>166</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1813,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="Y14" t="n">
-        <v>6</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="15">
@@ -1873,12 +1853,8 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -1903,15 +1879,9 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
